--- a/Datos y Graficas.xlsx
+++ b/Datos y Graficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\UVG\5to Semestre\Algoritmos y Estructuras de Datos\Hoja-de-Trabajo-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Orellana\Documents\GitHub\Hoja-de-Trabajo-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BB83AA-E279-45ED-B786-8AA5EA242434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7969F2EF-126D-4183-A30E-34673E94DFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F114EEB-7085-4101-812D-B6EE19863527}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F114EEB-7085-4101-812D-B6EE19863527}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Procesadores</t>
   </si>
@@ -54,18 +54,6 @@
   </si>
   <si>
     <t>Tiempo de Ejecución Promedio</t>
-  </si>
-  <si>
-    <t>en vez de caso "X" pones un numero conforme vas avanzando</t>
-  </si>
-  <si>
-    <t>entonces en descripcion de grafica pones los datos de la tabla verde</t>
-  </si>
-  <si>
-    <t>La cantidad de procesos dejala asi, pero es una corrida de programa por</t>
-  </si>
-  <si>
-    <t>cada celda, osea 5 corridas del programa</t>
   </si>
 </sst>
 </file>
@@ -227,7 +215,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -297,7 +285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -483,7 +471,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -521,7 +509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540887680"/>
@@ -600,7 +588,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="es-GT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -638,7 +626,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="540893504"/>
@@ -679,7 +667,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1584,19 +1572,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271BBB4D-D73E-4630-9FBE-B7D1FB70CFCE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1660,32 +1648,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="10">
         <v>200</v>
       </c>
       <c r="E7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
